--- a/dtpu_configurations/only_integer16/80mhz/mxu_10x10/timing.xlsx
+++ b/dtpu_configurations/only_integer16/80mhz/mxu_10x10/timing.xlsx
@@ -119,10 +119,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.49974068999290466</v>
+        <v>0.5088125467300415</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.011246337555348873</v>
+        <v>0.02633793093264103</v>
       </c>
     </row>
   </sheetData>
